--- a/examples/WebIndexSimple/example.xlsx
+++ b/examples/WebIndexSimple/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" firstSheet="23" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15576" windowHeight="5880" tabRatio="554" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="B-Imputed" sheetId="29" r:id="rId9"/>
     <sheet name="C-Imputed" sheetId="30" r:id="rId10"/>
     <sheet name="D-Imputed" sheetId="31" r:id="rId11"/>
-    <sheet name="A-Sorted" sheetId="4" r:id="rId12"/>
-    <sheet name="B-Sorted" sheetId="12" r:id="rId13"/>
-    <sheet name="C-Sorted" sheetId="11" r:id="rId14"/>
-    <sheet name="D-Sorted" sheetId="13" r:id="rId15"/>
+    <sheet name="A-Ordered" sheetId="4" r:id="rId12"/>
+    <sheet name="B-Ordered" sheetId="12" r:id="rId13"/>
+    <sheet name="C-Ordered" sheetId="11" r:id="rId14"/>
+    <sheet name="D-Ordered" sheetId="13" r:id="rId15"/>
     <sheet name="Q1-Sorted" sheetId="9" r:id="rId16"/>
     <sheet name="Q2-Sorted" sheetId="10" r:id="rId17"/>
     <sheet name="A-Normalized" sheetId="5" r:id="rId18"/>
@@ -37,6 +37,7 @@
     <sheet name="Subindex-Grouped" sheetId="26" r:id="rId28"/>
     <sheet name="Composite" sheetId="27" r:id="rId29"/>
     <sheet name="Rankings" sheetId="20" r:id="rId30"/>
+    <sheet name="Survey-Raw" sheetId="34" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="countries">Metadata!$A$14:$A$249</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="285">
   <si>
     <t>Raw</t>
   </si>
@@ -1437,18 +1438,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C272"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>248</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>249</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>243</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>265</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>278</v>
       </c>
@@ -2866,14 +2867,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3000,14 +3001,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3126,19 +3127,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3286,14 +3287,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3435,14 +3436,14 @@
       <selection activeCell="B9" sqref="B9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3581,17 +3582,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3729,18 +3730,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3845,14 +3846,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -3957,14 +3958,14 @@
       <selection activeCell="C5" sqref="C5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4002,55 +4003,55 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <f>('A-Sorted'!C$5-'A-Sorted'!C$9)/'A-Sorted'!C$10</f>
+        <f>('A-Ordered'!C$5-'A-Ordered'!C$9)/'A-Ordered'!C$10</f>
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f>('A-Sorted'!D$5-'A-Sorted'!D$9)/'A-Sorted'!D$10</f>
+        <f>('A-Ordered'!D$5-'A-Ordered'!D$9)/'A-Ordered'!D$10</f>
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f>('A-Sorted'!E$5-'A-Sorted'!E$9)/'A-Sorted'!E$10</f>
+        <f>('A-Ordered'!E$5-'A-Ordered'!E$9)/'A-Ordered'!E$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="5">
-        <f>('A-Sorted'!C$6-'A-Sorted'!C$9)/'A-Sorted'!C$10</f>
+        <f>('A-Ordered'!C$6-'A-Ordered'!C$9)/'A-Ordered'!C$10</f>
         <v>-1</v>
       </c>
       <c r="D6" s="5">
-        <f>('A-Sorted'!D$6-'A-Sorted'!D$9)/'A-Sorted'!D$10</f>
+        <f>('A-Ordered'!D$6-'A-Ordered'!D$9)/'A-Ordered'!D$10</f>
         <v>-1</v>
       </c>
       <c r="E6" s="5">
-        <f>('A-Sorted'!E$6-'A-Sorted'!E$9)/'A-Sorted'!E$10</f>
+        <f>('A-Ordered'!E$6-'A-Ordered'!E$9)/'A-Ordered'!E$10</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5">
-        <f>('A-Sorted'!C$7-'A-Sorted'!C$9)/'A-Sorted'!C$10</f>
+        <f>('A-Ordered'!C$7-'A-Ordered'!C$9)/'A-Ordered'!C$10</f>
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <f>('A-Sorted'!D$7-'A-Sorted'!D$9)/'A-Sorted'!D$10</f>
+        <f>('A-Ordered'!D$7-'A-Ordered'!D$9)/'A-Ordered'!D$10</f>
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <f>('A-Sorted'!E$7-'A-Sorted'!E$9)/'A-Sorted'!E$10</f>
+        <f>('A-Ordered'!E$7-'A-Ordered'!E$9)/'A-Ordered'!E$10</f>
         <v>1</v>
       </c>
     </row>
@@ -4078,14 +4079,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4126,55 +4127,55 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <f>('B-Sorted'!C$9-'B-Sorted'!C$5)/'B-Sorted'!C$10</f>
+        <f>('B-Ordered'!C$9-'B-Ordered'!C$5)/'B-Ordered'!C$10</f>
         <v>-1</v>
       </c>
       <c r="D5" s="5">
-        <f>('B-Sorted'!D$9-'B-Sorted'!D$5)/'B-Sorted'!D$10</f>
+        <f>('B-Ordered'!D$9-'B-Ordered'!D$5)/'B-Ordered'!D$10</f>
         <v>-1</v>
       </c>
       <c r="E5" s="5">
-        <f>('B-Sorted'!E$9-'B-Sorted'!E$5)/'B-Sorted'!E$10</f>
+        <f>('B-Ordered'!E$9-'B-Ordered'!E$5)/'B-Ordered'!E$10</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="5">
-        <f>('B-Sorted'!C$9-'B-Sorted'!C$6)/'B-Sorted'!C$10</f>
+        <f>('B-Ordered'!C$9-'B-Ordered'!C$6)/'B-Ordered'!C$10</f>
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>('B-Sorted'!D$9-'B-Sorted'!D$6)/'B-Sorted'!D$10</f>
+        <f>('B-Ordered'!D$9-'B-Ordered'!D$6)/'B-Ordered'!D$10</f>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>('B-Sorted'!E$9-'B-Sorted'!E$6)/'B-Sorted'!E$10</f>
+        <f>('B-Ordered'!E$9-'B-Ordered'!E$6)/'B-Ordered'!E$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5">
-        <f>('B-Sorted'!C$9-'B-Sorted'!C$7)/'B-Sorted'!C$10</f>
+        <f>('B-Ordered'!C$9-'B-Ordered'!C$7)/'B-Ordered'!C$10</f>
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <f>('B-Sorted'!D$9-'B-Sorted'!D$7)/'B-Sorted'!D$10</f>
+        <f>('B-Ordered'!D$9-'B-Ordered'!D$7)/'B-Ordered'!D$10</f>
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <f>('B-Sorted'!E$9-'B-Sorted'!E$7)/'B-Sorted'!E$10</f>
+        <f>('B-Ordered'!E$9-'B-Ordered'!E$7)/'B-Ordered'!E$10</f>
         <v>1</v>
       </c>
     </row>
@@ -4202,14 +4203,14 @@
       <selection activeCell="A3" sqref="A3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>204</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>78</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -4324,14 +4325,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4369,55 +4370,55 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <f>('C-Sorted'!C$5-'C-Sorted'!C$9)/'C-Sorted'!C$10</f>
+        <f>('C-Ordered'!C$5-'C-Ordered'!C$9)/'C-Ordered'!C$10</f>
         <v>-0.57735026918962551</v>
       </c>
       <c r="D5" s="5">
-        <f>('C-Sorted'!D$5-'C-Sorted'!D$9)/'C-Sorted'!D$10</f>
+        <f>('C-Ordered'!D$5-'C-Ordered'!D$9)/'C-Ordered'!D$10</f>
         <v>-0.57735026918962584</v>
       </c>
       <c r="E5" s="5">
-        <f>('C-Sorted'!E$5-'C-Sorted'!E$9)/'C-Sorted'!E$10</f>
+        <f>('C-Ordered'!E$5-'C-Ordered'!E$9)/'C-Ordered'!E$10</f>
         <v>-0.92031569366888055</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="5">
-        <f>('C-Sorted'!C$6-'C-Sorted'!C$9)/'C-Sorted'!C$10</f>
+        <f>('C-Ordered'!C$6-'C-Ordered'!C$9)/'C-Ordered'!C$10</f>
         <v>-0.57735026918962551</v>
       </c>
       <c r="D6" s="5">
-        <f>('C-Sorted'!D$6-'C-Sorted'!D$9)/'C-Sorted'!D$10</f>
+        <f>('C-Ordered'!D$6-'C-Ordered'!D$9)/'C-Ordered'!D$10</f>
         <v>-0.57735026918962584</v>
       </c>
       <c r="E6" s="5">
-        <f>('C-Sorted'!E$6-'C-Sorted'!E$9)/'C-Sorted'!E$10</f>
+        <f>('C-Ordered'!E$6-'C-Ordered'!E$9)/'C-Ordered'!E$10</f>
         <v>-0.14379932713576235</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5">
-        <f>('C-Sorted'!C$7-'C-Sorted'!C$9)/'C-Sorted'!C$10</f>
+        <f>('C-Ordered'!C$7-'C-Ordered'!C$9)/'C-Ordered'!C$10</f>
         <v>1.1547005383792501</v>
       </c>
       <c r="D7" s="5">
-        <f>('C-Sorted'!D$7-'C-Sorted'!D$9)/'C-Sorted'!D$10</f>
+        <f>('C-Ordered'!D$7-'C-Ordered'!D$9)/'C-Ordered'!D$10</f>
         <v>1.1547005383792517</v>
       </c>
       <c r="E7" s="5">
-        <f>('C-Sorted'!E$7-'C-Sorted'!E$9)/'C-Sorted'!E$10</f>
+        <f>('C-Ordered'!E$7-'C-Ordered'!E$9)/'C-Ordered'!E$10</f>
         <v>1.0641150208046437</v>
       </c>
     </row>
@@ -4445,14 +4446,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4490,55 +4491,55 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <f>('D-Sorted'!C$5-'D-Sorted'!C$9)/'D-Sorted'!C$10</f>
+        <f>('D-Ordered'!C$5-'D-Ordered'!C$9)/'D-Ordered'!C$10</f>
         <v>0.57735026918962584</v>
       </c>
       <c r="D5" s="5">
-        <f>('D-Sorted'!D$5-'D-Sorted'!D$9)/'D-Sorted'!D$10</f>
+        <f>('D-Ordered'!D$5-'D-Ordered'!D$9)/'D-Ordered'!D$10</f>
         <v>0.57735026918962584</v>
       </c>
       <c r="E5" s="5">
-        <f>('D-Sorted'!E$5-'D-Sorted'!E$9)/'D-Sorted'!E$10</f>
+        <f>('D-Ordered'!E$5-'D-Ordered'!E$9)/'D-Ordered'!E$10</f>
         <v>0.57735026918962584</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="5">
-        <f>('D-Sorted'!C$6-'D-Sorted'!C$9)/'D-Sorted'!C$10</f>
+        <f>('D-Ordered'!C$6-'D-Ordered'!C$9)/'D-Ordered'!C$10</f>
         <v>-1.1547005383792521</v>
       </c>
       <c r="D6" s="5">
-        <f>('D-Sorted'!D$6-'D-Sorted'!D$9)/'D-Sorted'!D$10</f>
+        <f>('D-Ordered'!D$6-'D-Ordered'!D$9)/'D-Ordered'!D$10</f>
         <v>-1.1547005383792517</v>
       </c>
       <c r="E6" s="5">
-        <f>('D-Sorted'!E$6-'D-Sorted'!E$9)/'D-Sorted'!E$10</f>
+        <f>('D-Ordered'!E$6-'D-Ordered'!E$9)/'D-Ordered'!E$10</f>
         <v>-1.1547005383792521</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5">
-        <f>('D-Sorted'!C$7-'D-Sorted'!C$9)/'D-Sorted'!C$10</f>
+        <f>('D-Ordered'!C$7-'D-Ordered'!C$9)/'D-Ordered'!C$10</f>
         <v>0.57735026918962584</v>
       </c>
       <c r="D7" s="5">
-        <f>('D-Sorted'!D$7-'D-Sorted'!D$9)/'D-Sorted'!D$10</f>
+        <f>('D-Ordered'!D$7-'D-Ordered'!D$9)/'D-Ordered'!D$10</f>
         <v>0.57735026918962584</v>
       </c>
       <c r="E7" s="5">
-        <f>('D-Sorted'!E$7-'D-Sorted'!E$9)/'D-Sorted'!E$10</f>
+        <f>('D-Ordered'!E$7-'D-Ordered'!E$9)/'D-Ordered'!E$10</f>
         <v>0.57735026918962584</v>
       </c>
     </row>
@@ -4563,17 +4564,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -4658,14 +4659,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>1.1208970766356094</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>-0.80064076902543546</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -4750,9 +4751,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -4893,9 +4894,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -5036,9 +5037,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>274</v>
       </c>
@@ -5198,13 +5199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>269</v>
       </c>
@@ -5315,9 +5316,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>268</v>
       </c>
@@ -5398,9 +5399,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>276</v>
       </c>
@@ -5454,14 +5455,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -5579,9 +5580,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>269</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>266</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>204</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5729,6 +5730,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5740,14 +5813,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -5755,7 +5828,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -5763,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -5777,7 +5850,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -5785,7 +5858,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -5800,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -5814,7 +5887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -5859,18 +5932,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -5878,7 +5951,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -5886,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -5894,7 +5967,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -5902,7 +5975,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -5911,7 +5984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -5919,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -5966,18 +6039,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -5985,7 +6058,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -5993,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -6001,7 +6074,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -6009,7 +6082,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -6018,7 +6091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -6026,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -6077,14 +6150,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -6092,7 +6165,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -6100,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -6114,7 +6187,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -6122,7 +6195,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -6137,7 +6210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -6151,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -6201,15 +6274,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -6217,7 +6290,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -6225,7 +6298,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -6239,7 +6312,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -6247,7 +6320,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -6262,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -6277,7 +6350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -6335,14 +6408,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
@@ -6350,7 +6423,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -6358,7 +6431,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>251</v>
       </c>
@@ -6372,7 +6445,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>247</v>
       </c>
@@ -6380,7 +6453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>204</v>
       </c>
@@ -6395,7 +6468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -6409,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
